--- a/data/raw/Guadua_palea_macro.xlsx
+++ b/data/raw/Guadua_palea_macro.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkam\Documents\Guadua_leaf_project\guadua_leaf\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C544A64-AE98-4A58-983A-0AA6EA779FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4095F2E-9111-4C9A-A92B-2EF4A1E2064B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9600211-06AD-467B-B739-043D092A1300}"/>
+    <workbookView xWindow="2730" yWindow="1455" windowWidth="21360" windowHeight="14745" xr2:uid="{B9600211-06AD-467B-B739-043D092A1300}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -270,9 +261,6 @@
     <t>G_venezuelae_Davidse_and_Huber_22496</t>
   </si>
   <si>
-    <t>G_glomerata_Rimachi_11035</t>
-  </si>
-  <si>
     <t>G_longifolia</t>
   </si>
   <si>
@@ -428,6 +416,9 @@
   <si>
     <t>Lemma_to_palea_div</t>
   </si>
+  <si>
+    <t>G_macrospiculata_Rimachi_11035</t>
+  </si>
 </sst>
 </file>
 
@@ -507,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -521,8 +512,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -840,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44BF520-C540-4F46-8CAB-D24A6730E5E1}">
   <dimension ref="A1:W286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B259" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,7 +880,7 @@
         <v>66</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>75</v>
@@ -900,28 +889,28 @@
         <v>67</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="S1" s="11" t="s">
+      <c r="R1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="U1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="T1" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -1438,7 +1427,7 @@
       <c r="Q8">
         <v>11.2</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8">
         <f t="shared" si="0"/>
         <v>1.0535714285714286</v>
       </c>
@@ -1515,7 +1504,7 @@
       <c r="Q9">
         <v>11.5</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9">
         <f t="shared" si="0"/>
         <v>1.1043478260869564</v>
       </c>
@@ -1696,7 +1685,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>28</v>
@@ -1773,7 +1762,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>28</v>
@@ -1850,7 +1839,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
@@ -1927,7 +1916,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
@@ -2004,7 +1993,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>28</v>
@@ -2081,7 +2070,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
@@ -2158,7 +2147,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>28</v>
@@ -2235,7 +2224,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>28</v>
@@ -2312,7 +2301,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>28</v>
@@ -2389,7 +2378,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>28</v>
@@ -2466,7 +2455,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>28</v>
@@ -2543,7 +2532,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>28</v>
@@ -2620,7 +2609,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>28</v>
@@ -2697,7 +2686,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>28</v>
@@ -2774,7 +2763,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>28</v>
@@ -4391,7 +4380,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>36</v>
@@ -4468,7 +4457,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>36</v>
@@ -4545,7 +4534,7 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>36</v>
@@ -4622,7 +4611,7 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>36</v>
@@ -4699,7 +4688,7 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>36</v>
@@ -5161,7 +5150,7 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
         <v>40</v>
@@ -5238,7 +5227,7 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B58" t="s">
         <v>40</v>
@@ -5315,7 +5304,7 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
         <v>40</v>
@@ -5392,7 +5381,7 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
         <v>40</v>
@@ -5469,7 +5458,7 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
         <v>40</v>
@@ -5546,7 +5535,7 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
         <v>40</v>
@@ -5623,7 +5612,7 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
         <v>40</v>
@@ -5700,7 +5689,7 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
         <v>40</v>
@@ -5777,7 +5766,7 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
         <v>40</v>
@@ -5854,7 +5843,7 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
         <v>40</v>
@@ -5931,7 +5920,7 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
         <v>40</v>
@@ -6008,7 +5997,7 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
         <v>40</v>
@@ -6058,7 +6047,7 @@
       <c r="Q68">
         <v>9.6999999999999993</v>
       </c>
-      <c r="R68" s="9">
+      <c r="R68">
         <f t="shared" si="6"/>
         <v>1.2164948453608249</v>
       </c>
@@ -6085,7 +6074,7 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
         <v>40</v>
@@ -6162,7 +6151,7 @@
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B70" t="s">
         <v>40</v>
@@ -6239,7 +6228,7 @@
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B71" t="s">
         <v>40</v>
@@ -6316,10 +6305,10 @@
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" t="s">
         <v>88</v>
-      </c>
-      <c r="B72" t="s">
-        <v>89</v>
       </c>
       <c r="C72" t="s">
         <v>51</v>
@@ -6393,10 +6382,10 @@
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
         <v>88</v>
-      </c>
-      <c r="B73" t="s">
-        <v>89</v>
       </c>
       <c r="C73" t="s">
         <v>51</v>
@@ -6470,10 +6459,10 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" t="s">
         <v>88</v>
-      </c>
-      <c r="B74" t="s">
-        <v>89</v>
       </c>
       <c r="C74" t="s">
         <v>51</v>
@@ -6547,10 +6536,10 @@
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" t="s">
         <v>88</v>
-      </c>
-      <c r="B75" t="s">
-        <v>89</v>
       </c>
       <c r="C75" t="s">
         <v>51</v>
@@ -6597,7 +6586,7 @@
       <c r="Q75">
         <v>16.2</v>
       </c>
-      <c r="R75" s="9">
+      <c r="R75">
         <f t="shared" si="6"/>
         <v>1.2160493827160495</v>
       </c>
@@ -6624,10 +6613,10 @@
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" t="s">
         <v>88</v>
-      </c>
-      <c r="B76" t="s">
-        <v>89</v>
       </c>
       <c r="C76" t="s">
         <v>51</v>
@@ -6701,10 +6690,10 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s">
         <v>51</v>
@@ -6778,10 +6767,10 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
         <v>51</v>
@@ -6855,10 +6844,10 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79" t="s">
         <v>51</v>
@@ -6932,10 +6921,10 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C80" t="s">
         <v>51</v>
@@ -7009,10 +6998,10 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
         <v>51</v>
@@ -7471,7 +7460,7 @@
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B87" t="s">
         <v>42</v>
@@ -7548,7 +7537,7 @@
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
         <v>42</v>
@@ -7625,7 +7614,7 @@
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
         <v>42</v>
@@ -7702,7 +7691,7 @@
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
         <v>42</v>
@@ -7779,7 +7768,7 @@
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>42</v>
@@ -8241,7 +8230,7 @@
     </row>
     <row r="97" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>45</v>
@@ -8318,7 +8307,7 @@
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98" t="s">
         <v>45</v>
@@ -8395,7 +8384,7 @@
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99" t="s">
         <v>45</v>
@@ -8472,7 +8461,7 @@
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B100" t="s">
         <v>45</v>
@@ -8549,7 +8538,7 @@
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B101" t="s">
         <v>45</v>
@@ -8626,7 +8615,7 @@
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B102" t="s">
         <v>45</v>
@@ -8703,7 +8692,7 @@
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B103" t="s">
         <v>76</v>
@@ -8780,7 +8769,7 @@
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B104" t="s">
         <v>76</v>
@@ -8857,7 +8846,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B105" t="s">
         <v>76</v>
@@ -8934,7 +8923,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B106" t="s">
         <v>76</v>
@@ -9011,7 +9000,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B107" t="s">
         <v>76</v>
@@ -9088,10 +9077,10 @@
     </row>
     <row r="108" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>57</v>
@@ -9165,10 +9154,10 @@
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>94</v>
+      </c>
+      <c r="B109" t="s">
         <v>95</v>
-      </c>
-      <c r="B109" t="s">
-        <v>96</v>
       </c>
       <c r="C109" t="s">
         <v>41</v>
@@ -9242,10 +9231,10 @@
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>94</v>
+      </c>
+      <c r="B110" t="s">
         <v>95</v>
-      </c>
-      <c r="B110" t="s">
-        <v>96</v>
       </c>
       <c r="C110" t="s">
         <v>41</v>
@@ -9319,10 +9308,10 @@
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>94</v>
+      </c>
+      <c r="B111" t="s">
         <v>95</v>
-      </c>
-      <c r="B111" t="s">
-        <v>96</v>
       </c>
       <c r="C111" t="s">
         <v>41</v>
@@ -9396,10 +9385,10 @@
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>94</v>
+      </c>
+      <c r="B112" t="s">
         <v>95</v>
-      </c>
-      <c r="B112" t="s">
-        <v>96</v>
       </c>
       <c r="C112" t="s">
         <v>41</v>
@@ -9473,10 +9462,10 @@
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>94</v>
+      </c>
+      <c r="B113" t="s">
         <v>95</v>
-      </c>
-      <c r="B113" t="s">
-        <v>96</v>
       </c>
       <c r="C113" t="s">
         <v>41</v>
@@ -9550,10 +9539,10 @@
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C114" t="s">
         <v>41</v>
@@ -9627,10 +9616,10 @@
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B115" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C115" t="s">
         <v>41</v>
@@ -9704,10 +9693,10 @@
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B116" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C116" t="s">
         <v>41</v>
@@ -9781,10 +9770,10 @@
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B117" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C117" t="s">
         <v>41</v>
@@ -9858,10 +9847,10 @@
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B118" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C118" t="s">
         <v>41</v>
@@ -9908,7 +9897,7 @@
       <c r="Q118">
         <v>9.1999999999999993</v>
       </c>
-      <c r="R118" s="9">
+      <c r="R118">
         <f t="shared" si="6"/>
         <v>1.1413043478260871</v>
       </c>
@@ -10395,56 +10384,56 @@
         <v>9.1743119266055051E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B125" s="10" t="s">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G125" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C125" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F125" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G125" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H125" s="9">
+      <c r="H125">
         <v>14.9</v>
       </c>
-      <c r="I125" s="9">
+      <c r="I125">
         <v>1.8</v>
       </c>
-      <c r="J125" s="9">
+      <c r="J125">
         <v>1.4</v>
       </c>
-      <c r="K125" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="L125" s="9">
+      <c r="K125">
+        <v>0.1</v>
+      </c>
+      <c r="L125">
         <v>0.8</v>
       </c>
-      <c r="M125" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N125" s="9">
+      <c r="M125">
+        <v>0.1</v>
+      </c>
+      <c r="N125">
         <v>0.3</v>
       </c>
-      <c r="O125" s="9">
+      <c r="O125">
         <v>0.4</v>
       </c>
-      <c r="P125" s="9">
+      <c r="P125">
         <v>20.100000000000001</v>
       </c>
-      <c r="Q125" s="9">
+      <c r="Q125">
         <v>14.9</v>
       </c>
       <c r="R125">
@@ -10472,56 +10461,56 @@
         <v>2.6845637583892617E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B126" s="10" t="s">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G126" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C126" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F126" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H126" s="9">
+      <c r="H126">
         <v>13</v>
       </c>
-      <c r="I126" s="9">
+      <c r="I126">
         <v>2</v>
       </c>
-      <c r="J126" s="9">
+      <c r="J126">
         <v>1.7</v>
       </c>
-      <c r="K126" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="L126" s="9">
+      <c r="K126">
+        <v>0.1</v>
+      </c>
+      <c r="L126">
         <v>0.9</v>
       </c>
-      <c r="M126" s="9">
+      <c r="M126">
         <v>0.2</v>
       </c>
-      <c r="N126" s="9">
+      <c r="N126">
         <v>0.3</v>
       </c>
-      <c r="O126" s="9">
+      <c r="O126">
         <v>0.2</v>
       </c>
-      <c r="P126" s="9">
+      <c r="P126">
         <v>21.6</v>
       </c>
-      <c r="Q126" s="9">
+      <c r="Q126">
         <v>13</v>
       </c>
       <c r="R126">
@@ -10549,56 +10538,56 @@
         <v>1.5384615384615385E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B127" s="10" t="s">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G127" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C127" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F127" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H127" s="9">
+      <c r="H127">
         <v>13.6</v>
       </c>
-      <c r="I127" s="9">
+      <c r="I127">
         <v>1.7</v>
       </c>
-      <c r="J127" s="9">
+      <c r="J127">
         <v>1.5</v>
       </c>
-      <c r="K127" s="9">
+      <c r="K127">
         <v>0.2</v>
       </c>
-      <c r="L127" s="9">
+      <c r="L127">
         <v>0.7</v>
       </c>
-      <c r="M127" s="9">
+      <c r="M127">
         <v>0.2</v>
       </c>
-      <c r="N127" s="9">
+      <c r="N127">
         <v>0.2</v>
       </c>
-      <c r="O127" s="9">
+      <c r="O127">
         <v>0.2</v>
       </c>
-      <c r="P127" s="9">
+      <c r="P127">
         <v>23.7</v>
       </c>
-      <c r="Q127" s="9">
+      <c r="Q127">
         <v>13.6</v>
       </c>
       <c r="R127">
@@ -10626,56 +10615,56 @@
         <v>1.4705882352941178E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B128" s="10" t="s">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G128" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C128" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F128" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H128" s="9">
+      <c r="H128">
         <v>14.6</v>
       </c>
-      <c r="I128" s="9">
+      <c r="I128">
         <v>1.7</v>
       </c>
-      <c r="J128" s="9">
+      <c r="J128">
         <v>1.4</v>
       </c>
-      <c r="K128" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="L128" s="9">
+      <c r="K128">
+        <v>0.1</v>
+      </c>
+      <c r="L128">
         <v>0.6</v>
       </c>
-      <c r="M128" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N128" s="9">
+      <c r="M128">
+        <v>0.1</v>
+      </c>
+      <c r="N128">
         <v>0.2</v>
       </c>
-      <c r="O128" s="9">
+      <c r="O128">
         <v>0.2</v>
       </c>
-      <c r="P128" s="9">
+      <c r="P128">
         <v>24.4</v>
       </c>
-      <c r="Q128" s="9">
+      <c r="Q128">
         <v>14.6</v>
       </c>
       <c r="R128">
@@ -10703,56 +10692,56 @@
         <v>1.3698630136986302E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B129" s="10" t="s">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G129" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C129" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F129" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H129" s="9">
+      <c r="H129">
         <v>13.4</v>
       </c>
-      <c r="I129" s="9">
+      <c r="I129">
         <v>1.8</v>
       </c>
-      <c r="J129" s="9">
+      <c r="J129">
         <v>1.5</v>
       </c>
-      <c r="K129" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="L129" s="9">
+      <c r="K129">
+        <v>0.1</v>
+      </c>
+      <c r="L129">
         <v>0.6</v>
       </c>
-      <c r="M129" s="9">
+      <c r="M129">
         <v>0.3</v>
       </c>
-      <c r="N129" s="9">
+      <c r="N129">
         <v>0.3</v>
       </c>
-      <c r="O129" s="9">
+      <c r="O129">
         <v>0.2</v>
       </c>
-      <c r="P129" s="9">
+      <c r="P129">
         <v>22.7</v>
       </c>
-      <c r="Q129" s="9">
+      <c r="Q129">
         <v>13.4</v>
       </c>
       <c r="R129">
@@ -10782,54 +10771,54 @@
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C130" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D130" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E130" s="10" t="s">
+      <c r="E130" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F130" s="10" t="s">
+      <c r="F130" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G130" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H130" s="9">
+      <c r="G130" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H130">
         <v>13.4</v>
       </c>
-      <c r="I130" s="9">
+      <c r="I130">
         <v>2.1</v>
       </c>
-      <c r="J130" s="9">
+      <c r="J130">
         <v>1.8</v>
       </c>
-      <c r="K130" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="L130" s="9">
+      <c r="K130">
+        <v>0.1</v>
+      </c>
+      <c r="L130">
         <v>0.7</v>
       </c>
-      <c r="M130" s="9">
+      <c r="M130">
         <v>0.3</v>
       </c>
-      <c r="N130" s="9">
+      <c r="N130">
         <v>0.3</v>
       </c>
-      <c r="O130" s="9">
+      <c r="O130">
         <v>0.2</v>
       </c>
-      <c r="P130" s="9">
+      <c r="P130">
         <v>18.3</v>
       </c>
-      <c r="Q130" s="9">
+      <c r="Q130">
         <v>13.4</v>
       </c>
       <c r="R130">
@@ -10859,54 +10848,54 @@
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C131" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D131" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E131" s="10" t="s">
+      <c r="E131" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F131" s="10" t="s">
+      <c r="F131" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G131" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H131" s="9">
+      <c r="G131" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H131">
         <v>12.2</v>
       </c>
-      <c r="I131" s="9">
+      <c r="I131">
         <v>1.9</v>
       </c>
-      <c r="J131" s="9">
+      <c r="J131">
         <v>1.6</v>
       </c>
-      <c r="K131" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="L131" s="9">
+      <c r="K131">
+        <v>0.1</v>
+      </c>
+      <c r="L131">
         <v>0.7</v>
       </c>
-      <c r="M131" s="9">
+      <c r="M131">
         <v>0.5</v>
       </c>
-      <c r="N131" s="9">
+      <c r="N131">
         <v>0.4</v>
       </c>
-      <c r="O131" s="9">
+      <c r="O131">
         <v>0.3</v>
       </c>
-      <c r="P131" s="9">
+      <c r="P131">
         <v>19.8</v>
       </c>
-      <c r="Q131" s="9">
+      <c r="Q131">
         <v>12.2</v>
       </c>
       <c r="R131">
@@ -10936,54 +10925,54 @@
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C132" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="D132" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E132" s="10" t="s">
+      <c r="E132" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F132" s="10" t="s">
+      <c r="F132" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G132" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H132" s="9">
+      <c r="G132" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H132">
         <v>12.1</v>
       </c>
-      <c r="I132" s="9">
+      <c r="I132">
         <v>1.9</v>
       </c>
-      <c r="J132" s="9">
+      <c r="J132">
         <v>1.6</v>
       </c>
-      <c r="K132" s="9">
+      <c r="K132">
         <v>0.2</v>
       </c>
-      <c r="L132" s="9">
+      <c r="L132">
         <v>0.7</v>
       </c>
-      <c r="M132" s="9">
+      <c r="M132">
         <v>0.2</v>
       </c>
-      <c r="N132" s="9">
+      <c r="N132">
         <v>0.4</v>
       </c>
-      <c r="O132" s="9">
+      <c r="O132">
         <v>0.3</v>
       </c>
-      <c r="P132" s="9">
+      <c r="P132">
         <v>18.7</v>
       </c>
-      <c r="Q132" s="9">
+      <c r="Q132">
         <v>12.1</v>
       </c>
       <c r="R132">
@@ -11013,54 +11002,54 @@
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C133" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D133" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E133" s="10" t="s">
+      <c r="E133" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F133" s="10" t="s">
+      <c r="F133" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G133" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H133" s="9">
+      <c r="G133" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H133">
         <v>12.5</v>
       </c>
-      <c r="I133" s="9">
+      <c r="I133">
         <v>2</v>
       </c>
-      <c r="J133" s="9">
+      <c r="J133">
         <v>1.5</v>
       </c>
-      <c r="K133" s="9">
+      <c r="K133">
         <v>0.2</v>
       </c>
-      <c r="L133" s="9">
+      <c r="L133">
         <v>0.6</v>
       </c>
-      <c r="M133" s="9">
+      <c r="M133">
         <v>0.4</v>
       </c>
-      <c r="N133" s="9">
+      <c r="N133">
         <v>0.4</v>
       </c>
-      <c r="O133" s="9">
+      <c r="O133">
         <v>0.3</v>
       </c>
-      <c r="P133" s="9">
+      <c r="P133">
         <v>18.899999999999999</v>
       </c>
-      <c r="Q133" s="9">
+      <c r="Q133">
         <v>12.5</v>
       </c>
       <c r="R133">
@@ -11090,54 +11079,54 @@
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C134" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D134" s="10" t="s">
+      <c r="D134" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E134" s="10" t="s">
+      <c r="E134" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F134" s="10" t="s">
+      <c r="F134" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G134" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H134" s="9">
+      <c r="G134" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H134">
         <v>11.4</v>
       </c>
-      <c r="I134" s="9">
+      <c r="I134">
         <v>1.8</v>
       </c>
-      <c r="J134" s="9">
+      <c r="J134">
         <v>1.5</v>
       </c>
-      <c r="K134" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="L134" s="9">
+      <c r="K134">
+        <v>0.1</v>
+      </c>
+      <c r="L134">
         <v>0.7</v>
       </c>
-      <c r="M134" s="9">
+      <c r="M134">
         <v>0.4</v>
       </c>
-      <c r="N134" s="9">
+      <c r="N134">
         <v>0.5</v>
       </c>
-      <c r="O134" s="9">
+      <c r="O134">
         <v>0.4</v>
       </c>
-      <c r="P134" s="9">
+      <c r="P134">
         <v>18.2</v>
       </c>
-      <c r="Q134" s="9">
+      <c r="Q134">
         <v>11.4</v>
       </c>
       <c r="R134">
@@ -11167,10 +11156,10 @@
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>102</v>
+      </c>
+      <c r="B135" t="s">
         <v>103</v>
-      </c>
-      <c r="B135" t="s">
-        <v>104</v>
       </c>
       <c r="C135" t="s">
         <v>35</v>
@@ -11187,34 +11176,34 @@
       <c r="G135" t="s">
         <v>72</v>
       </c>
-      <c r="H135" s="9">
+      <c r="H135">
         <v>6.5</v>
       </c>
-      <c r="I135" s="9">
+      <c r="I135">
         <v>1.5</v>
       </c>
-      <c r="J135" s="9">
+      <c r="J135">
         <v>1.3</v>
       </c>
-      <c r="K135" s="9">
+      <c r="K135">
         <v>0.4</v>
       </c>
-      <c r="L135" s="9">
+      <c r="L135">
         <v>0.7</v>
       </c>
-      <c r="M135" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N135" s="9">
+      <c r="M135">
+        <v>0.1</v>
+      </c>
+      <c r="N135">
         <v>0.3</v>
       </c>
-      <c r="O135" s="9">
+      <c r="O135">
         <v>0.4</v>
       </c>
-      <c r="P135" s="9">
+      <c r="P135">
         <v>6.6</v>
       </c>
-      <c r="Q135" s="9">
+      <c r="Q135">
         <v>6.5</v>
       </c>
       <c r="R135">
@@ -11244,10 +11233,10 @@
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>102</v>
+      </c>
+      <c r="B136" t="s">
         <v>103</v>
-      </c>
-      <c r="B136" t="s">
-        <v>104</v>
       </c>
       <c r="C136" t="s">
         <v>35</v>
@@ -11264,34 +11253,34 @@
       <c r="G136" t="s">
         <v>72</v>
       </c>
-      <c r="H136" s="9">
+      <c r="H136">
         <v>6.3</v>
       </c>
-      <c r="I136" s="9">
+      <c r="I136">
         <v>1.5</v>
       </c>
-      <c r="J136" s="9">
+      <c r="J136">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K136" s="9">
+      <c r="K136">
         <v>0.6</v>
       </c>
-      <c r="L136" s="9">
+      <c r="L136">
         <v>0.9</v>
       </c>
-      <c r="M136" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N136" s="9">
+      <c r="M136">
+        <v>0.1</v>
+      </c>
+      <c r="N136">
         <v>0.2</v>
       </c>
-      <c r="O136" s="9">
+      <c r="O136">
         <v>0.3</v>
       </c>
-      <c r="P136" s="9">
+      <c r="P136">
         <v>6.6</v>
       </c>
-      <c r="Q136" s="9">
+      <c r="Q136">
         <v>6.3</v>
       </c>
       <c r="R136">
@@ -11321,10 +11310,10 @@
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>102</v>
+      </c>
+      <c r="B137" t="s">
         <v>103</v>
-      </c>
-      <c r="B137" t="s">
-        <v>104</v>
       </c>
       <c r="C137" t="s">
         <v>35</v>
@@ -11341,34 +11330,34 @@
       <c r="G137" t="s">
         <v>72</v>
       </c>
-      <c r="H137" s="9">
+      <c r="H137">
         <v>5</v>
       </c>
-      <c r="I137" s="9">
+      <c r="I137">
         <v>1.4</v>
       </c>
-      <c r="J137" s="9">
+      <c r="J137">
         <v>1.2</v>
       </c>
-      <c r="K137" s="9">
+      <c r="K137">
         <v>0.5</v>
       </c>
-      <c r="L137" s="9">
+      <c r="L137">
         <v>0.8</v>
       </c>
-      <c r="M137" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N137" s="9">
+      <c r="M137">
+        <v>0.1</v>
+      </c>
+      <c r="N137">
         <v>0.4</v>
       </c>
-      <c r="O137" s="9">
+      <c r="O137">
         <v>0.4</v>
       </c>
-      <c r="P137" s="9">
+      <c r="P137">
         <v>5.6</v>
       </c>
-      <c r="Q137" s="9">
+      <c r="Q137">
         <v>5</v>
       </c>
       <c r="R137">
@@ -11398,10 +11387,10 @@
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>102</v>
+      </c>
+      <c r="B138" t="s">
         <v>103</v>
-      </c>
-      <c r="B138" t="s">
-        <v>104</v>
       </c>
       <c r="C138" t="s">
         <v>35</v>
@@ -11418,34 +11407,34 @@
       <c r="G138" t="s">
         <v>72</v>
       </c>
-      <c r="H138" s="9">
+      <c r="H138">
         <v>6</v>
       </c>
-      <c r="I138" s="9">
+      <c r="I138">
         <v>1.3</v>
       </c>
-      <c r="J138" s="9">
+      <c r="J138">
         <v>1</v>
       </c>
-      <c r="K138" s="9">
+      <c r="K138">
         <v>0.4</v>
       </c>
-      <c r="L138" s="9">
+      <c r="L138">
         <v>0.7</v>
       </c>
-      <c r="M138" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N138" s="9">
+      <c r="M138">
+        <v>0.1</v>
+      </c>
+      <c r="N138">
         <v>0.4</v>
       </c>
-      <c r="O138" s="9">
+      <c r="O138">
         <v>0.4</v>
       </c>
-      <c r="P138" s="9">
+      <c r="P138">
         <v>6.4</v>
       </c>
-      <c r="Q138" s="9">
+      <c r="Q138">
         <v>6</v>
       </c>
       <c r="R138">
@@ -11475,10 +11464,10 @@
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>102</v>
+      </c>
+      <c r="B139" t="s">
         <v>103</v>
-      </c>
-      <c r="B139" t="s">
-        <v>104</v>
       </c>
       <c r="C139" t="s">
         <v>35</v>
@@ -11495,34 +11484,34 @@
       <c r="G139" t="s">
         <v>72</v>
       </c>
-      <c r="H139" s="9">
+      <c r="H139">
         <v>6.5</v>
       </c>
-      <c r="I139" s="9">
+      <c r="I139">
         <v>1.4</v>
       </c>
-      <c r="J139" s="9">
+      <c r="J139">
         <v>1</v>
       </c>
-      <c r="K139" s="9">
+      <c r="K139">
         <v>0.4</v>
       </c>
-      <c r="L139" s="9">
+      <c r="L139">
         <v>0.8</v>
       </c>
-      <c r="M139" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N139" s="9">
+      <c r="M139">
+        <v>0.1</v>
+      </c>
+      <c r="N139">
         <v>0.4</v>
       </c>
-      <c r="O139" s="9">
+      <c r="O139">
         <v>0.3</v>
       </c>
-      <c r="P139" s="9">
+      <c r="P139">
         <v>6.5</v>
       </c>
-      <c r="Q139" s="9">
+      <c r="Q139">
         <v>6.5</v>
       </c>
       <c r="R139">
@@ -11572,34 +11561,34 @@
       <c r="G140" t="s">
         <v>72</v>
       </c>
-      <c r="H140" s="9">
+      <c r="H140">
         <v>12.6</v>
       </c>
-      <c r="I140" s="9">
+      <c r="I140">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J140" s="9">
+      <c r="J140">
         <v>2.1</v>
       </c>
-      <c r="K140" s="9">
+      <c r="K140">
         <v>0.5</v>
       </c>
-      <c r="L140" s="9">
+      <c r="L140">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M140" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N140" s="9">
+      <c r="M140">
+        <v>0.1</v>
+      </c>
+      <c r="N140">
         <v>0.2</v>
       </c>
-      <c r="O140" s="9">
+      <c r="O140">
         <v>0.4</v>
       </c>
-      <c r="P140" s="9">
+      <c r="P140">
         <v>16.399999999999999</v>
       </c>
-      <c r="Q140" s="9">
+      <c r="Q140">
         <v>12.6</v>
       </c>
       <c r="R140">
@@ -11649,34 +11638,34 @@
       <c r="G141" t="s">
         <v>72</v>
       </c>
-      <c r="H141" s="9">
+      <c r="H141">
         <v>11.9</v>
       </c>
-      <c r="I141" s="9">
+      <c r="I141">
         <v>1.9</v>
       </c>
-      <c r="J141" s="9">
+      <c r="J141">
         <v>1.6</v>
       </c>
-      <c r="K141" s="9">
+      <c r="K141">
         <v>0.4</v>
       </c>
-      <c r="L141" s="9">
+      <c r="L141">
         <v>1.6</v>
       </c>
-      <c r="M141" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N141" s="9">
+      <c r="M141">
+        <v>0.1</v>
+      </c>
+      <c r="N141">
         <v>0.5</v>
       </c>
-      <c r="O141" s="9">
+      <c r="O141">
         <v>0.4</v>
       </c>
-      <c r="P141" s="9">
+      <c r="P141">
         <v>17.8</v>
       </c>
-      <c r="Q141" s="9">
+      <c r="Q141">
         <v>11.9</v>
       </c>
       <c r="R141">
@@ -11726,34 +11715,34 @@
       <c r="G142" t="s">
         <v>72</v>
       </c>
-      <c r="H142" s="9">
+      <c r="H142">
         <v>11.7</v>
       </c>
-      <c r="I142" s="9">
+      <c r="I142">
         <v>2</v>
       </c>
-      <c r="J142" s="9">
+      <c r="J142">
         <v>1.8</v>
       </c>
-      <c r="K142" s="9">
+      <c r="K142">
         <v>0.2</v>
       </c>
-      <c r="L142" s="9">
+      <c r="L142">
         <v>1.9</v>
       </c>
-      <c r="M142" s="9">
+      <c r="M142">
         <v>0.05</v>
       </c>
-      <c r="N142" s="9">
+      <c r="N142">
         <v>0.5</v>
       </c>
-      <c r="O142" s="9">
+      <c r="O142">
         <v>0.5</v>
       </c>
-      <c r="P142" s="9">
+      <c r="P142">
         <v>17.399999999999999</v>
       </c>
-      <c r="Q142" s="9">
+      <c r="Q142">
         <v>11.7</v>
       </c>
       <c r="R142">
@@ -11803,34 +11792,34 @@
       <c r="G143" t="s">
         <v>72</v>
       </c>
-      <c r="H143" s="9">
+      <c r="H143">
         <v>11.8</v>
       </c>
-      <c r="I143" s="9">
+      <c r="I143">
         <v>1.7</v>
       </c>
-      <c r="J143" s="9">
+      <c r="J143">
         <v>1.4</v>
       </c>
-      <c r="K143" s="9">
+      <c r="K143">
         <v>0.4</v>
       </c>
-      <c r="L143" s="9">
+      <c r="L143">
         <v>1.4</v>
       </c>
-      <c r="M143" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N143" s="9">
+      <c r="M143">
+        <v>0.1</v>
+      </c>
+      <c r="N143">
         <v>0.5</v>
       </c>
-      <c r="O143" s="9">
+      <c r="O143">
         <v>0.4</v>
       </c>
-      <c r="P143" s="9">
+      <c r="P143">
         <v>17.100000000000001</v>
       </c>
-      <c r="Q143" s="9">
+      <c r="Q143">
         <v>11.8</v>
       </c>
       <c r="R143">
@@ -11880,34 +11869,34 @@
       <c r="G144" t="s">
         <v>72</v>
       </c>
-      <c r="H144" s="9">
+      <c r="H144">
         <v>13.4</v>
       </c>
-      <c r="I144" s="9">
+      <c r="I144">
         <v>2.4</v>
       </c>
-      <c r="J144" s="9">
+      <c r="J144">
         <v>2</v>
       </c>
-      <c r="K144" s="9">
+      <c r="K144">
         <v>0.2</v>
       </c>
-      <c r="L144" s="9">
+      <c r="L144">
         <v>1.4</v>
       </c>
-      <c r="M144" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N144" s="9">
+      <c r="M144">
+        <v>0.1</v>
+      </c>
+      <c r="N144">
         <v>0.4</v>
       </c>
-      <c r="O144" s="9">
+      <c r="O144">
         <v>0.3</v>
       </c>
-      <c r="P144" s="9">
+      <c r="P144">
         <v>20.5</v>
       </c>
-      <c r="Q144" s="9">
+      <c r="Q144">
         <v>13.4</v>
       </c>
       <c r="R144">
@@ -11937,7 +11926,7 @@
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B145" t="s">
         <v>50</v>
@@ -11957,34 +11946,34 @@
       <c r="G145" t="s">
         <v>72</v>
       </c>
-      <c r="H145" s="9">
+      <c r="H145">
         <v>12.5</v>
       </c>
-      <c r="I145" s="9">
+      <c r="I145">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J145" s="9">
+      <c r="J145">
         <v>1.9</v>
       </c>
-      <c r="K145" s="9">
+      <c r="K145">
         <v>0.3</v>
       </c>
-      <c r="L145" s="9">
+      <c r="L145">
         <v>0.8</v>
       </c>
-      <c r="M145" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N145" s="9">
+      <c r="M145">
+        <v>0.1</v>
+      </c>
+      <c r="N145">
         <v>0.3</v>
       </c>
-      <c r="O145" s="9">
+      <c r="O145">
         <v>0.3</v>
       </c>
-      <c r="P145" s="9">
+      <c r="P145">
         <v>21.4</v>
       </c>
-      <c r="Q145" s="9">
+      <c r="Q145">
         <v>12.5</v>
       </c>
       <c r="R145">
@@ -12014,7 +12003,7 @@
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B146" t="s">
         <v>50</v>
@@ -12034,34 +12023,34 @@
       <c r="G146" t="s">
         <v>72</v>
       </c>
-      <c r="H146" s="9">
+      <c r="H146">
         <v>12.2</v>
       </c>
-      <c r="I146" s="9">
+      <c r="I146">
         <v>2.4</v>
       </c>
-      <c r="J146" s="9">
+      <c r="J146">
         <v>2</v>
       </c>
-      <c r="K146" s="9">
+      <c r="K146">
         <v>0.4</v>
       </c>
-      <c r="L146" s="9">
+      <c r="L146">
         <v>1</v>
       </c>
-      <c r="M146" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N146" s="9">
+      <c r="M146">
+        <v>0.1</v>
+      </c>
+      <c r="N146">
         <v>0.5</v>
       </c>
-      <c r="O146" s="9">
+      <c r="O146">
         <v>0.3</v>
       </c>
-      <c r="P146" s="9">
+      <c r="P146">
         <v>19.5</v>
       </c>
-      <c r="Q146" s="9">
+      <c r="Q146">
         <v>12.2</v>
       </c>
       <c r="R146">
@@ -12091,7 +12080,7 @@
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B147" t="s">
         <v>50</v>
@@ -12111,34 +12100,34 @@
       <c r="G147" t="s">
         <v>72</v>
       </c>
-      <c r="H147" s="9">
+      <c r="H147">
         <v>13.7</v>
       </c>
-      <c r="I147" s="9">
+      <c r="I147">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J147" s="9">
+      <c r="J147">
         <v>1.9</v>
       </c>
-      <c r="K147" s="9">
+      <c r="K147">
         <v>0.4</v>
       </c>
-      <c r="L147" s="9">
+      <c r="L147">
         <v>0.8</v>
       </c>
-      <c r="M147" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N147" s="9">
+      <c r="M147">
+        <v>0.1</v>
+      </c>
+      <c r="N147">
         <v>0.5</v>
       </c>
-      <c r="O147" s="9">
+      <c r="O147">
         <v>0.2</v>
       </c>
-      <c r="P147" s="9">
+      <c r="P147">
         <v>23.3</v>
       </c>
-      <c r="Q147" s="9">
+      <c r="Q147">
         <v>13.7</v>
       </c>
       <c r="R147">
@@ -12168,7 +12157,7 @@
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B148" t="s">
         <v>50</v>
@@ -12188,34 +12177,34 @@
       <c r="G148" t="s">
         <v>72</v>
       </c>
-      <c r="H148" s="9">
+      <c r="H148">
         <v>12.9</v>
       </c>
-      <c r="I148" s="9">
+      <c r="I148">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J148" s="9">
+      <c r="J148">
         <v>1.7</v>
       </c>
-      <c r="K148" s="9">
+      <c r="K148">
         <v>0.3</v>
       </c>
-      <c r="L148" s="9">
+      <c r="L148">
         <v>1</v>
       </c>
-      <c r="M148" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N148" s="9">
+      <c r="M148">
+        <v>0.1</v>
+      </c>
+      <c r="N148">
         <v>0.4</v>
       </c>
-      <c r="O148" s="9">
+      <c r="O148">
         <v>0.2</v>
       </c>
-      <c r="P148" s="9">
+      <c r="P148">
         <v>22.1</v>
       </c>
-      <c r="Q148" s="9">
+      <c r="Q148">
         <v>12.9</v>
       </c>
       <c r="R148">
@@ -12245,7 +12234,7 @@
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B149" t="s">
         <v>50</v>
@@ -12265,34 +12254,34 @@
       <c r="G149" t="s">
         <v>72</v>
       </c>
-      <c r="H149" s="9">
+      <c r="H149">
         <v>12.9</v>
       </c>
-      <c r="I149" s="9">
+      <c r="I149">
         <v>1.9</v>
       </c>
-      <c r="J149" s="9">
+      <c r="J149">
         <v>1.6</v>
       </c>
-      <c r="K149" s="9">
+      <c r="K149">
         <v>0.2</v>
       </c>
-      <c r="L149" s="9">
+      <c r="L149">
         <v>0.9</v>
       </c>
-      <c r="M149" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N149" s="9">
+      <c r="M149">
+        <v>0.1</v>
+      </c>
+      <c r="N149">
         <v>0.4</v>
       </c>
-      <c r="O149" s="9">
+      <c r="O149">
         <v>0.2</v>
       </c>
-      <c r="P149" s="9">
+      <c r="P149">
         <v>22.2</v>
       </c>
-      <c r="Q149" s="9">
+      <c r="Q149">
         <v>12.9</v>
       </c>
       <c r="R149">
@@ -12322,7 +12311,7 @@
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B150" t="s">
         <v>50</v>
@@ -12342,34 +12331,34 @@
       <c r="G150" t="s">
         <v>72</v>
       </c>
-      <c r="H150" s="9">
+      <c r="H150">
         <v>16.2</v>
       </c>
-      <c r="I150" s="9">
+      <c r="I150">
         <v>2.1</v>
       </c>
-      <c r="J150" s="9">
+      <c r="J150">
         <v>1.9</v>
       </c>
-      <c r="K150" s="9">
+      <c r="K150">
         <v>0.5</v>
       </c>
-      <c r="L150" s="9">
+      <c r="L150">
         <v>0.7</v>
       </c>
-      <c r="M150" s="9">
+      <c r="M150">
         <v>0.05</v>
       </c>
-      <c r="N150" s="9">
+      <c r="N150">
         <v>0.3</v>
       </c>
-      <c r="O150" s="9">
+      <c r="O150">
         <v>0.4</v>
       </c>
-      <c r="P150" s="9">
+      <c r="P150">
         <v>20.3</v>
       </c>
-      <c r="Q150" s="9">
+      <c r="Q150">
         <v>16.2</v>
       </c>
       <c r="R150">
@@ -12399,7 +12388,7 @@
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B151" t="s">
         <v>50</v>
@@ -12419,34 +12408,34 @@
       <c r="G151" t="s">
         <v>72</v>
       </c>
-      <c r="H151" s="9">
+      <c r="H151">
         <v>13.1</v>
       </c>
-      <c r="I151" s="9">
+      <c r="I151">
         <v>2</v>
       </c>
-      <c r="J151" s="9">
+      <c r="J151">
         <v>1.8</v>
       </c>
-      <c r="K151" s="9">
+      <c r="K151">
         <v>0.3</v>
       </c>
-      <c r="L151" s="9">
+      <c r="L151">
         <v>0.7</v>
       </c>
-      <c r="M151" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N151" s="9">
+      <c r="M151">
+        <v>0.1</v>
+      </c>
+      <c r="N151">
         <v>0.3</v>
       </c>
-      <c r="O151" s="9">
+      <c r="O151">
         <v>0.2</v>
       </c>
-      <c r="P151" s="9">
+      <c r="P151">
         <v>19</v>
       </c>
-      <c r="Q151" s="9">
+      <c r="Q151">
         <v>13.1</v>
       </c>
       <c r="R151">
@@ -12476,7 +12465,7 @@
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B152" t="s">
         <v>50</v>
@@ -12496,34 +12485,34 @@
       <c r="G152" t="s">
         <v>72</v>
       </c>
-      <c r="H152" s="9">
+      <c r="H152">
         <v>11.5</v>
       </c>
-      <c r="I152" s="9">
+      <c r="I152">
         <v>2</v>
       </c>
-      <c r="J152" s="9">
+      <c r="J152">
         <v>1.7</v>
       </c>
-      <c r="K152" s="9">
+      <c r="K152">
         <v>0.5</v>
       </c>
-      <c r="L152" s="9">
+      <c r="L152">
         <v>0.8</v>
       </c>
-      <c r="M152" s="9">
+      <c r="M152">
         <v>0.05</v>
       </c>
-      <c r="N152" s="9">
+      <c r="N152">
         <v>0.6</v>
       </c>
-      <c r="O152" s="9">
+      <c r="O152">
         <v>0.3</v>
       </c>
-      <c r="P152" s="9">
+      <c r="P152">
         <v>19</v>
       </c>
-      <c r="Q152" s="9">
+      <c r="Q152">
         <v>11.5</v>
       </c>
       <c r="R152">
@@ -12553,7 +12542,7 @@
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B153" t="s">
         <v>50</v>
@@ -12573,34 +12562,34 @@
       <c r="G153" t="s">
         <v>72</v>
       </c>
-      <c r="H153" s="9">
+      <c r="H153">
         <v>12.5</v>
       </c>
-      <c r="I153" s="9">
+      <c r="I153">
         <v>1.8</v>
       </c>
-      <c r="J153" s="9">
+      <c r="J153">
         <v>1.5</v>
       </c>
-      <c r="K153" s="9">
+      <c r="K153">
         <v>0.4</v>
       </c>
-      <c r="L153" s="9">
+      <c r="L153">
         <v>0.8</v>
       </c>
-      <c r="M153" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N153" s="9">
+      <c r="M153">
+        <v>0.1</v>
+      </c>
+      <c r="N153">
         <v>0.4</v>
       </c>
-      <c r="O153" s="9">
+      <c r="O153">
         <v>0.2</v>
       </c>
-      <c r="P153" s="9">
+      <c r="P153">
         <v>16.899999999999999</v>
       </c>
-      <c r="Q153" s="9">
+      <c r="Q153">
         <v>12.5</v>
       </c>
       <c r="R153">
@@ -12630,7 +12619,7 @@
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B154" t="s">
         <v>50</v>
@@ -12650,34 +12639,34 @@
       <c r="G154" t="s">
         <v>72</v>
       </c>
-      <c r="H154" s="9">
+      <c r="H154">
         <v>10.3</v>
       </c>
-      <c r="I154" s="9">
+      <c r="I154">
         <v>1.8</v>
       </c>
-      <c r="J154" s="9">
+      <c r="J154">
         <v>1.4</v>
       </c>
-      <c r="K154" s="9">
+      <c r="K154">
         <v>0.4</v>
       </c>
-      <c r="L154" s="9">
+      <c r="L154">
         <v>0.6</v>
       </c>
-      <c r="M154" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N154" s="9">
+      <c r="M154">
+        <v>0.1</v>
+      </c>
+      <c r="N154">
         <v>0.6</v>
       </c>
-      <c r="O154" s="9">
+      <c r="O154">
         <v>0.3</v>
       </c>
-      <c r="P154" s="9">
+      <c r="P154">
         <v>16.399999999999999</v>
       </c>
-      <c r="Q154" s="9">
+      <c r="Q154">
         <v>10.3</v>
       </c>
       <c r="R154">
@@ -12707,7 +12696,7 @@
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B155" t="s">
         <v>50</v>
@@ -12727,34 +12716,34 @@
       <c r="G155" t="s">
         <v>72</v>
       </c>
-      <c r="H155" s="9">
+      <c r="H155">
         <v>11.5</v>
       </c>
-      <c r="I155" s="9">
+      <c r="I155">
         <v>2.5</v>
       </c>
-      <c r="J155" s="9">
+      <c r="J155">
         <v>1.9</v>
       </c>
-      <c r="K155" s="9">
+      <c r="K155">
         <v>0.5</v>
       </c>
-      <c r="L155" s="9">
+      <c r="L155">
         <v>0.7</v>
       </c>
-      <c r="M155" s="9">
+      <c r="M155">
         <v>0</v>
       </c>
-      <c r="N155" s="9">
+      <c r="N155">
         <v>0.5</v>
       </c>
-      <c r="O155" s="9">
+      <c r="O155">
         <v>0.2</v>
       </c>
-      <c r="P155" s="9">
+      <c r="P155">
         <v>20.100000000000001</v>
       </c>
-      <c r="Q155" s="9">
+      <c r="Q155">
         <v>11.5</v>
       </c>
       <c r="R155">
@@ -12784,7 +12773,7 @@
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B156" t="s">
         <v>50</v>
@@ -12804,34 +12793,34 @@
       <c r="G156" t="s">
         <v>72</v>
       </c>
-      <c r="H156" s="9">
+      <c r="H156">
         <v>13.6</v>
       </c>
-      <c r="I156" s="9">
+      <c r="I156">
         <v>2.4</v>
       </c>
-      <c r="J156" s="9">
+      <c r="J156">
         <v>1.5</v>
       </c>
-      <c r="K156" s="9">
+      <c r="K156">
         <v>0.5</v>
       </c>
-      <c r="L156" s="9">
+      <c r="L156">
         <v>0.7</v>
       </c>
-      <c r="M156" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N156" s="9">
+      <c r="M156">
+        <v>0.1</v>
+      </c>
+      <c r="N156">
         <v>0.5</v>
       </c>
-      <c r="O156" s="9">
+      <c r="O156">
         <v>0.3</v>
       </c>
-      <c r="P156" s="9">
+      <c r="P156">
         <v>20.9</v>
       </c>
-      <c r="Q156" s="9">
+      <c r="Q156">
         <v>13.6</v>
       </c>
       <c r="R156">
@@ -12861,7 +12850,7 @@
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B157" t="s">
         <v>50</v>
@@ -12881,34 +12870,34 @@
       <c r="G157" t="s">
         <v>72</v>
       </c>
-      <c r="H157" s="9">
+      <c r="H157">
         <v>10.6</v>
       </c>
-      <c r="I157" s="9">
+      <c r="I157">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J157" s="9">
+      <c r="J157">
         <v>1.8</v>
       </c>
-      <c r="K157" s="9">
+      <c r="K157">
         <v>0.5</v>
       </c>
-      <c r="L157" s="9">
+      <c r="L157">
         <v>0.6</v>
       </c>
-      <c r="M157" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N157" s="9">
+      <c r="M157">
+        <v>0.1</v>
+      </c>
+      <c r="N157">
         <v>0.5</v>
       </c>
-      <c r="O157" s="9">
+      <c r="O157">
         <v>0.4</v>
       </c>
-      <c r="P157" s="9">
+      <c r="P157">
         <v>16.399999999999999</v>
       </c>
-      <c r="Q157" s="9">
+      <c r="Q157">
         <v>10.6</v>
       </c>
       <c r="R157">
@@ -12938,7 +12927,7 @@
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B158" t="s">
         <v>50</v>
@@ -12958,34 +12947,34 @@
       <c r="G158" t="s">
         <v>72</v>
       </c>
-      <c r="H158" s="9">
+      <c r="H158">
         <v>13.6</v>
       </c>
-      <c r="I158" s="9">
+      <c r="I158">
         <v>2.6</v>
       </c>
-      <c r="J158" s="9">
+      <c r="J158">
         <v>2.1</v>
       </c>
-      <c r="K158" s="9">
+      <c r="K158">
         <v>0.4</v>
       </c>
-      <c r="L158" s="9">
+      <c r="L158">
         <v>0.9</v>
       </c>
-      <c r="M158" s="9">
+      <c r="M158">
         <v>0</v>
       </c>
-      <c r="N158" s="9">
+      <c r="N158">
         <v>0.5</v>
       </c>
-      <c r="O158" s="9">
+      <c r="O158">
         <v>0.2</v>
       </c>
-      <c r="P158" s="9">
+      <c r="P158">
         <v>22.5</v>
       </c>
-      <c r="Q158" s="9">
+      <c r="Q158">
         <v>13.6</v>
       </c>
       <c r="R158">
@@ -13015,7 +13004,7 @@
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B159" t="s">
         <v>50</v>
@@ -13035,34 +13024,34 @@
       <c r="G159" t="s">
         <v>72</v>
       </c>
-      <c r="H159" s="9">
+      <c r="H159">
         <v>13.9</v>
       </c>
-      <c r="I159" s="9">
+      <c r="I159">
         <v>2.1</v>
       </c>
-      <c r="J159" s="9">
+      <c r="J159">
         <v>1.8</v>
       </c>
-      <c r="K159" s="9">
+      <c r="K159">
         <v>0.4</v>
       </c>
-      <c r="L159" s="9">
+      <c r="L159">
         <v>0.8</v>
       </c>
-      <c r="M159" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N159" s="9">
+      <c r="M159">
+        <v>0.1</v>
+      </c>
+      <c r="N159">
         <v>0.5</v>
       </c>
-      <c r="O159" s="9">
+      <c r="O159">
         <v>0.2</v>
       </c>
-      <c r="P159" s="9">
+      <c r="P159">
         <v>21.5</v>
       </c>
-      <c r="Q159" s="9">
+      <c r="Q159">
         <v>13.9</v>
       </c>
       <c r="R159">
@@ -13112,34 +13101,34 @@
       <c r="G160" t="s">
         <v>72</v>
       </c>
-      <c r="H160" s="9">
+      <c r="H160">
         <v>13.7</v>
       </c>
-      <c r="I160" s="9">
+      <c r="I160">
         <v>2.9</v>
       </c>
-      <c r="J160" s="9">
+      <c r="J160">
         <v>1.9</v>
       </c>
-      <c r="K160" s="9">
+      <c r="K160">
         <v>1</v>
       </c>
-      <c r="L160" s="9">
+      <c r="L160">
         <v>1.2</v>
       </c>
-      <c r="M160" s="9">
+      <c r="M160">
         <v>0.05</v>
       </c>
-      <c r="N160" s="9">
+      <c r="N160">
         <v>0.3</v>
       </c>
-      <c r="O160" s="9">
+      <c r="O160">
         <v>0.3</v>
       </c>
-      <c r="P160" s="9">
+      <c r="P160">
         <v>17.8</v>
       </c>
-      <c r="Q160" s="9">
+      <c r="Q160">
         <v>13.7</v>
       </c>
       <c r="R160">
@@ -13189,34 +13178,34 @@
       <c r="G161" t="s">
         <v>72</v>
       </c>
-      <c r="H161" s="9">
+      <c r="H161">
         <v>12.3</v>
       </c>
-      <c r="I161" s="9">
+      <c r="I161">
         <v>3.5</v>
       </c>
-      <c r="J161" s="9">
+      <c r="J161">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K161" s="9">
+      <c r="K161">
         <v>0.9</v>
       </c>
-      <c r="L161" s="9">
+      <c r="L161">
         <v>1</v>
       </c>
-      <c r="M161" s="9">
+      <c r="M161">
         <v>0.05</v>
       </c>
-      <c r="N161" s="9">
+      <c r="N161">
         <v>0.2</v>
       </c>
-      <c r="O161" s="9">
+      <c r="O161">
         <v>0.3</v>
       </c>
-      <c r="P161" s="9">
+      <c r="P161">
         <v>17</v>
       </c>
-      <c r="Q161" s="9">
+      <c r="Q161">
         <v>12.3</v>
       </c>
       <c r="R161">
@@ -13266,34 +13255,34 @@
       <c r="G162" t="s">
         <v>72</v>
       </c>
-      <c r="H162" s="9">
+      <c r="H162">
         <v>11.2</v>
       </c>
-      <c r="I162" s="9">
+      <c r="I162">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J162" s="9">
+      <c r="J162">
         <v>1.6</v>
       </c>
-      <c r="K162" s="9">
+      <c r="K162">
         <v>0.7</v>
       </c>
-      <c r="L162" s="9">
+      <c r="L162">
         <v>0.7</v>
       </c>
-      <c r="M162" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N162" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="O162" s="9">
+      <c r="M162">
+        <v>0.1</v>
+      </c>
+      <c r="N162">
+        <v>0.1</v>
+      </c>
+      <c r="O162">
         <v>0.4</v>
       </c>
-      <c r="P162" s="9">
+      <c r="P162">
         <v>15.9</v>
       </c>
-      <c r="Q162" s="9">
+      <c r="Q162">
         <v>11.2</v>
       </c>
       <c r="R162">
@@ -13343,34 +13332,34 @@
       <c r="G163" t="s">
         <v>72</v>
       </c>
-      <c r="H163" s="9">
+      <c r="H163">
         <v>13.7</v>
       </c>
-      <c r="I163" s="9">
+      <c r="I163">
         <v>2.1</v>
       </c>
-      <c r="J163" s="9">
+      <c r="J163">
         <v>1.7</v>
       </c>
-      <c r="K163" s="9">
+      <c r="K163">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L163" s="9">
+      <c r="L163">
         <v>0.8</v>
       </c>
-      <c r="M163" s="9">
+      <c r="M163">
         <v>0.05</v>
       </c>
-      <c r="N163" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="O163" s="9">
+      <c r="N163">
+        <v>0.1</v>
+      </c>
+      <c r="O163">
         <v>0.3</v>
       </c>
-      <c r="P163" s="9">
+      <c r="P163">
         <v>18.399999999999999</v>
       </c>
-      <c r="Q163" s="9">
+      <c r="Q163">
         <v>13.7</v>
       </c>
       <c r="R163">
@@ -13420,34 +13409,34 @@
       <c r="G164" t="s">
         <v>72</v>
       </c>
-      <c r="H164" s="9">
+      <c r="H164">
         <v>13.2</v>
       </c>
-      <c r="I164" s="9">
+      <c r="I164">
         <v>2.9</v>
       </c>
-      <c r="J164" s="9">
+      <c r="J164">
         <v>2.1</v>
       </c>
-      <c r="K164" s="9">
+      <c r="K164">
         <v>1</v>
       </c>
-      <c r="L164" s="9">
+      <c r="L164">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M164" s="9">
+      <c r="M164">
         <v>0.05</v>
       </c>
-      <c r="N164" s="9">
+      <c r="N164">
         <v>0.2</v>
       </c>
-      <c r="O164" s="9">
+      <c r="O164">
         <v>0.5</v>
       </c>
-      <c r="P164" s="9">
+      <c r="P164">
         <v>17.2</v>
       </c>
-      <c r="Q164" s="9">
+      <c r="Q164">
         <v>13.2</v>
       </c>
       <c r="R164">
@@ -13477,7 +13466,7 @@
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B165" t="s">
         <v>52</v>
@@ -13497,34 +13486,34 @@
       <c r="G165" t="s">
         <v>72</v>
       </c>
-      <c r="H165" s="9">
+      <c r="H165">
         <v>9.9</v>
       </c>
-      <c r="I165" s="9">
+      <c r="I165">
         <v>1.8</v>
       </c>
-      <c r="J165" s="9">
+      <c r="J165">
         <v>1.5</v>
       </c>
-      <c r="K165" s="9">
+      <c r="K165">
         <v>0.7</v>
       </c>
-      <c r="L165" s="9">
+      <c r="L165">
         <v>0.7</v>
       </c>
-      <c r="M165" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N165" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="O165" s="9">
+      <c r="M165">
+        <v>0.1</v>
+      </c>
+      <c r="N165">
+        <v>0.1</v>
+      </c>
+      <c r="O165">
         <v>0.2</v>
       </c>
-      <c r="P165" s="9">
+      <c r="P165">
         <v>15</v>
       </c>
-      <c r="Q165" s="9">
+      <c r="Q165">
         <v>9.9</v>
       </c>
       <c r="R165">
@@ -13554,7 +13543,7 @@
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B166" t="s">
         <v>52</v>
@@ -13574,34 +13563,34 @@
       <c r="G166" t="s">
         <v>72</v>
       </c>
-      <c r="H166" s="9">
+      <c r="H166">
         <v>11.2</v>
       </c>
-      <c r="I166" s="9">
+      <c r="I166">
         <v>2.6</v>
       </c>
-      <c r="J166" s="9">
+      <c r="J166">
         <v>1.8</v>
       </c>
-      <c r="K166" s="9">
+      <c r="K166">
         <v>0.8</v>
       </c>
-      <c r="L166" s="9">
+      <c r="L166">
         <v>0.9</v>
       </c>
-      <c r="M166" s="9">
+      <c r="M166">
         <v>0.05</v>
       </c>
-      <c r="N166" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="O166" s="9">
+      <c r="N166">
+        <v>0.1</v>
+      </c>
+      <c r="O166">
         <v>0.3</v>
       </c>
-      <c r="P166" s="9">
+      <c r="P166">
         <v>17.7</v>
       </c>
-      <c r="Q166" s="9">
+      <c r="Q166">
         <v>11.2</v>
       </c>
       <c r="R166">
@@ -13631,7 +13620,7 @@
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B167" t="s">
         <v>52</v>
@@ -13651,34 +13640,34 @@
       <c r="G167" t="s">
         <v>72</v>
       </c>
-      <c r="H167" s="9">
+      <c r="H167">
         <v>11.6</v>
       </c>
-      <c r="I167" s="9">
+      <c r="I167">
         <v>2.8</v>
       </c>
-      <c r="J167" s="9">
+      <c r="J167">
         <v>1.9</v>
       </c>
-      <c r="K167" s="9">
+      <c r="K167">
         <v>0.9</v>
       </c>
-      <c r="L167" s="9">
+      <c r="L167">
         <v>1</v>
       </c>
-      <c r="M167" s="9">
+      <c r="M167">
         <v>0.05</v>
       </c>
-      <c r="N167" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="O167" s="9">
+      <c r="N167">
+        <v>0.1</v>
+      </c>
+      <c r="O167">
         <v>0.2</v>
       </c>
-      <c r="P167" s="9">
+      <c r="P167">
         <v>17.2</v>
       </c>
-      <c r="Q167" s="9">
+      <c r="Q167">
         <v>11.6</v>
       </c>
       <c r="R167">
@@ -13708,7 +13697,7 @@
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B168" t="s">
         <v>52</v>
@@ -13728,34 +13717,34 @@
       <c r="G168" t="s">
         <v>72</v>
       </c>
-      <c r="H168" s="9">
+      <c r="H168">
         <v>10.9</v>
       </c>
-      <c r="I168" s="9">
+      <c r="I168">
         <v>2.8</v>
       </c>
-      <c r="J168" s="9">
+      <c r="J168">
         <v>2</v>
       </c>
-      <c r="K168" s="9">
+      <c r="K168">
         <v>0.7</v>
       </c>
-      <c r="L168" s="9">
+      <c r="L168">
         <v>0.9</v>
       </c>
-      <c r="M168" s="9">
+      <c r="M168">
         <v>0.05</v>
       </c>
-      <c r="N168" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="O168" s="9">
+      <c r="N168">
+        <v>0.1</v>
+      </c>
+      <c r="O168">
         <v>0.2</v>
       </c>
-      <c r="P168" s="9">
+      <c r="P168">
         <v>15.6</v>
       </c>
-      <c r="Q168" s="9">
+      <c r="Q168">
         <v>10.9</v>
       </c>
       <c r="R168">
@@ -13785,7 +13774,7 @@
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B169" t="s">
         <v>52</v>
@@ -13805,34 +13794,34 @@
       <c r="G169" t="s">
         <v>72</v>
       </c>
-      <c r="H169" s="9">
+      <c r="H169">
         <v>10.1</v>
       </c>
-      <c r="I169" s="9">
+      <c r="I169">
         <v>1.9</v>
       </c>
-      <c r="J169" s="9">
+      <c r="J169">
         <v>1.7</v>
       </c>
-      <c r="K169" s="9">
+      <c r="K169">
         <v>0.5</v>
       </c>
-      <c r="L169" s="9">
+      <c r="L169">
         <v>0.6</v>
       </c>
-      <c r="M169" s="9">
+      <c r="M169">
         <v>0</v>
       </c>
-      <c r="N169" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="O169" s="9">
+      <c r="N169">
+        <v>0.1</v>
+      </c>
+      <c r="O169">
         <v>0.3</v>
       </c>
-      <c r="P169" s="9">
+      <c r="P169">
         <v>14</v>
       </c>
-      <c r="Q169" s="9">
+      <c r="Q169">
         <v>10.1</v>
       </c>
       <c r="R169">
@@ -13882,34 +13871,34 @@
       <c r="G170" t="s">
         <v>72</v>
       </c>
-      <c r="H170" s="9">
+      <c r="H170">
         <v>7.4</v>
       </c>
-      <c r="I170" s="9">
+      <c r="I170">
         <v>1.4</v>
       </c>
-      <c r="J170" s="9">
+      <c r="J170">
         <v>1.2</v>
       </c>
-      <c r="K170" s="9">
+      <c r="K170">
         <v>0.2</v>
       </c>
-      <c r="L170" s="9">
+      <c r="L170">
         <v>0.6</v>
       </c>
-      <c r="M170" s="9">
+      <c r="M170">
         <v>0.2</v>
       </c>
-      <c r="N170" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="O170" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="P170" s="9">
+      <c r="N170">
+        <v>0.1</v>
+      </c>
+      <c r="O170">
+        <v>0.1</v>
+      </c>
+      <c r="P170">
         <v>6.7</v>
       </c>
-      <c r="Q170" s="9">
+      <c r="Q170">
         <v>7.4</v>
       </c>
       <c r="R170">
@@ -13959,34 +13948,34 @@
       <c r="G171" t="s">
         <v>72</v>
       </c>
-      <c r="H171" s="9">
+      <c r="H171">
         <v>7.1</v>
       </c>
-      <c r="I171" s="9">
+      <c r="I171">
         <v>1.2</v>
       </c>
-      <c r="J171" s="9">
+      <c r="J171">
         <v>0.9</v>
       </c>
-      <c r="K171" s="9">
+      <c r="K171">
         <v>0.2</v>
       </c>
-      <c r="L171" s="9">
+      <c r="L171">
         <v>0.8</v>
       </c>
-      <c r="M171" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N171" s="9">
+      <c r="M171">
+        <v>0.1</v>
+      </c>
+      <c r="N171">
         <v>0.4</v>
       </c>
-      <c r="O171" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="P171" s="9">
+      <c r="O171">
+        <v>0.1</v>
+      </c>
+      <c r="P171">
         <v>5.6</v>
       </c>
-      <c r="Q171" s="9">
+      <c r="Q171">
         <v>7.1</v>
       </c>
       <c r="R171">
@@ -14036,34 +14025,34 @@
       <c r="G172" t="s">
         <v>72</v>
       </c>
-      <c r="H172" s="9">
+      <c r="H172">
         <v>7.2</v>
       </c>
-      <c r="I172" s="9">
+      <c r="I172">
         <v>1.3</v>
       </c>
-      <c r="J172" s="9">
+      <c r="J172">
         <v>1</v>
       </c>
-      <c r="K172" s="9">
+      <c r="K172">
         <v>0.2</v>
       </c>
-      <c r="L172" s="9">
+      <c r="L172">
         <v>1</v>
       </c>
-      <c r="M172" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N172" s="9">
+      <c r="M172">
+        <v>0.1</v>
+      </c>
+      <c r="N172">
         <v>0.4</v>
       </c>
-      <c r="O172" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="P172" s="9">
+      <c r="O172">
+        <v>0.1</v>
+      </c>
+      <c r="P172">
         <v>6.7</v>
       </c>
-      <c r="Q172" s="9">
+      <c r="Q172">
         <v>7.2</v>
       </c>
       <c r="R172">
@@ -14113,34 +14102,34 @@
       <c r="G173" t="s">
         <v>72</v>
       </c>
-      <c r="H173" s="9">
+      <c r="H173">
         <v>7.3</v>
       </c>
-      <c r="I173" s="9">
+      <c r="I173">
         <v>1.2</v>
       </c>
-      <c r="J173" s="9">
+      <c r="J173">
         <v>1</v>
       </c>
-      <c r="K173" s="9">
+      <c r="K173">
         <v>0.2</v>
       </c>
-      <c r="L173" s="9">
+      <c r="L173">
         <v>0.9</v>
       </c>
-      <c r="M173" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N173" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="O173" s="9">
+      <c r="M173">
+        <v>0.1</v>
+      </c>
+      <c r="N173">
+        <v>0.1</v>
+      </c>
+      <c r="O173">
         <v>0.2</v>
       </c>
-      <c r="P173" s="9">
+      <c r="P173">
         <v>6</v>
       </c>
-      <c r="Q173" s="9">
+      <c r="Q173">
         <v>7.3</v>
       </c>
       <c r="R173">
@@ -14190,34 +14179,34 @@
       <c r="G174" t="s">
         <v>72</v>
       </c>
-      <c r="H174" s="9">
+      <c r="H174">
         <v>7.7</v>
       </c>
-      <c r="I174" s="9">
+      <c r="I174">
         <v>1.4</v>
       </c>
-      <c r="J174" s="9">
+      <c r="J174">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K174" s="9">
+      <c r="K174">
         <v>0.2</v>
       </c>
-      <c r="L174" s="9">
+      <c r="L174">
         <v>0.8</v>
       </c>
-      <c r="M174" s="9">
+      <c r="M174">
         <v>0.2</v>
       </c>
-      <c r="N174" s="9">
+      <c r="N174">
         <v>0.3</v>
       </c>
-      <c r="O174" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="P174" s="9">
+      <c r="O174">
+        <v>0.1</v>
+      </c>
+      <c r="P174">
         <v>7.5</v>
       </c>
-      <c r="Q174" s="9">
+      <c r="Q174">
         <v>7.7</v>
       </c>
       <c r="R174">
@@ -15787,10 +15776,10 @@
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>96</v>
+      </c>
+      <c r="B195" t="s">
         <v>97</v>
-      </c>
-      <c r="B195" t="s">
-        <v>98</v>
       </c>
       <c r="C195" t="s">
         <v>51</v>
@@ -15864,10 +15853,10 @@
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>96</v>
+      </c>
+      <c r="B196" t="s">
         <v>97</v>
-      </c>
-      <c r="B196" t="s">
-        <v>98</v>
       </c>
       <c r="C196" t="s">
         <v>51</v>
@@ -15941,10 +15930,10 @@
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>96</v>
+      </c>
+      <c r="B197" t="s">
         <v>97</v>
-      </c>
-      <c r="B197" t="s">
-        <v>98</v>
       </c>
       <c r="C197" t="s">
         <v>51</v>
@@ -16018,10 +16007,10 @@
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>96</v>
+      </c>
+      <c r="B198" t="s">
         <v>97</v>
-      </c>
-      <c r="B198" t="s">
-        <v>98</v>
       </c>
       <c r="C198" t="s">
         <v>51</v>
@@ -16095,10 +16084,10 @@
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>96</v>
+      </c>
+      <c r="B199" t="s">
         <v>97</v>
-      </c>
-      <c r="B199" t="s">
-        <v>98</v>
       </c>
       <c r="C199" t="s">
         <v>51</v>
@@ -16530,7 +16519,7 @@
       <c r="Q204">
         <v>8</v>
       </c>
-      <c r="R204" s="9">
+      <c r="R204">
         <f t="shared" si="18"/>
         <v>0.97499999999999998</v>
       </c>
@@ -16942,7 +16931,7 @@
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B210" t="s">
         <v>58</v>
@@ -17019,7 +17008,7 @@
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B211" t="s">
         <v>58</v>
@@ -17096,7 +17085,7 @@
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B212" t="s">
         <v>58</v>
@@ -17173,7 +17162,7 @@
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B213" t="s">
         <v>58</v>
@@ -17250,7 +17239,7 @@
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B214" t="s">
         <v>58</v>
@@ -17327,7 +17316,7 @@
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B215" t="s">
         <v>58</v>
@@ -17404,7 +17393,7 @@
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B216" t="s">
         <v>58</v>
@@ -17481,7 +17470,7 @@
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B217" t="s">
         <v>58</v>
@@ -17558,7 +17547,7 @@
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B218" t="s">
         <v>58</v>
@@ -17635,7 +17624,7 @@
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B219" t="s">
         <v>58</v>
@@ -17712,7 +17701,7 @@
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B220" t="s">
         <v>58</v>
@@ -17789,7 +17778,7 @@
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B221" t="s">
         <v>58</v>
@@ -17866,7 +17855,7 @@
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B222" t="s">
         <v>58</v>
@@ -17943,7 +17932,7 @@
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B223" t="s">
         <v>58</v>
@@ -18020,7 +18009,7 @@
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B224" t="s">
         <v>58</v>
@@ -18482,7 +18471,7 @@
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B230" t="s">
         <v>59</v>
@@ -18559,7 +18548,7 @@
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B231" t="s">
         <v>59</v>
@@ -18636,7 +18625,7 @@
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B232" t="s">
         <v>59</v>
@@ -18713,7 +18702,7 @@
     </row>
     <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B233" t="s">
         <v>59</v>
@@ -18790,7 +18779,7 @@
     </row>
     <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B234" t="s">
         <v>59</v>
@@ -18867,7 +18856,7 @@
     </row>
     <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B235" t="s">
         <v>60</v>
@@ -18944,7 +18933,7 @@
     </row>
     <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B236" t="s">
         <v>60</v>
@@ -19021,7 +19010,7 @@
     </row>
     <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B237" t="s">
         <v>60</v>
@@ -19098,7 +19087,7 @@
     </row>
     <row r="238" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B238" t="s">
         <v>60</v>
@@ -19175,7 +19164,7 @@
     </row>
     <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B239" t="s">
         <v>60</v>
@@ -19252,7 +19241,7 @@
     </row>
     <row r="240" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B240" t="s">
         <v>60</v>
@@ -19329,7 +19318,7 @@
     </row>
     <row r="241" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B241" t="s">
         <v>60</v>
@@ -19406,7 +19395,7 @@
     </row>
     <row r="242" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B242" t="s">
         <v>60</v>
@@ -19483,7 +19472,7 @@
     </row>
     <row r="243" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B243" t="s">
         <v>60</v>
@@ -19560,7 +19549,7 @@
     </row>
     <row r="244" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B244" t="s">
         <v>60</v>
@@ -19637,7 +19626,7 @@
     </row>
     <row r="245" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B245" t="s">
         <v>60</v>
@@ -19714,7 +19703,7 @@
     </row>
     <row r="246" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B246" t="s">
         <v>60</v>
@@ -19791,7 +19780,7 @@
     </row>
     <row r="247" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B247" t="s">
         <v>60</v>
@@ -19868,7 +19857,7 @@
     </row>
     <row r="248" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B248" t="s">
         <v>60</v>
@@ -19945,7 +19934,7 @@
     </row>
     <row r="249" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B249" t="s">
         <v>60</v>
@@ -20022,7 +20011,7 @@
     </row>
     <row r="250" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B250" t="s">
         <v>60</v>
@@ -20099,7 +20088,7 @@
     </row>
     <row r="251" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B251" t="s">
         <v>60</v>
@@ -20176,7 +20165,7 @@
     </row>
     <row r="252" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B252" t="s">
         <v>60</v>
@@ -20253,7 +20242,7 @@
     </row>
     <row r="253" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B253" t="s">
         <v>60</v>
@@ -20330,7 +20319,7 @@
     </row>
     <row r="254" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B254" t="s">
         <v>60</v>
@@ -20407,13 +20396,13 @@
     </row>
     <row r="255" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B255" t="s">
         <v>60</v>
       </c>
       <c r="C255" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D255" t="s">
         <v>44</v>
@@ -20425,7 +20414,7 @@
         <v>49</v>
       </c>
       <c r="G255" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H255">
         <v>10.3</v>
@@ -20484,13 +20473,13 @@
     </row>
     <row r="256" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B256" t="s">
         <v>60</v>
       </c>
       <c r="C256" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D256" t="s">
         <v>44</v>
@@ -20502,7 +20491,7 @@
         <v>49</v>
       </c>
       <c r="G256" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H256">
         <v>10.4</v>
@@ -20561,13 +20550,13 @@
     </row>
     <row r="257" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B257" t="s">
         <v>60</v>
       </c>
       <c r="C257" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D257" t="s">
         <v>44</v>
@@ -20579,7 +20568,7 @@
         <v>49</v>
       </c>
       <c r="G257" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H257">
         <v>10.199999999999999</v>
@@ -20638,13 +20627,13 @@
     </row>
     <row r="258" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B258" t="s">
         <v>60</v>
       </c>
       <c r="C258" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D258" t="s">
         <v>44</v>
@@ -20656,7 +20645,7 @@
         <v>49</v>
       </c>
       <c r="G258" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H258">
         <v>9</v>
@@ -20715,13 +20704,13 @@
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B259" t="s">
         <v>60</v>
       </c>
       <c r="C259" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D259" t="s">
         <v>44</v>
@@ -20733,7 +20722,7 @@
         <v>49</v>
       </c>
       <c r="G259" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H259">
         <v>9.9</v>
@@ -20792,13 +20781,13 @@
     </row>
     <row r="260" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B260" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C260" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D260" t="s">
         <v>38</v>
@@ -20869,13 +20858,13 @@
     </row>
     <row r="261" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B261" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C261" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D261" t="s">
         <v>38</v>
@@ -20946,13 +20935,13 @@
     </row>
     <row r="262" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B262" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C262" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D262" t="s">
         <v>38</v>
@@ -21023,13 +21012,13 @@
     </row>
     <row r="263" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B263" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C263" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D263" t="s">
         <v>38</v>
@@ -21100,13 +21089,13 @@
     </row>
     <row r="264" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B264" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C264" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D264" t="s">
         <v>38</v>
@@ -21716,7 +21705,7 @@
     </row>
     <row r="272" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B272" t="s">
         <v>69</v>
@@ -21734,7 +21723,7 @@
         <v>49</v>
       </c>
       <c r="G272" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H272">
         <v>6.4</v>
@@ -21793,7 +21782,7 @@
     </row>
     <row r="273" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B273" t="s">
         <v>69</v>
@@ -21811,7 +21800,7 @@
         <v>49</v>
       </c>
       <c r="G273" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H273">
         <v>7.6</v>
@@ -21870,7 +21859,7 @@
     </row>
     <row r="274" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B274" t="s">
         <v>69</v>
@@ -21888,7 +21877,7 @@
         <v>49</v>
       </c>
       <c r="G274" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H274">
         <v>8.3000000000000007</v>
@@ -21920,7 +21909,7 @@
       <c r="Q274">
         <v>8.3000000000000007</v>
       </c>
-      <c r="R274" s="9">
+      <c r="R274">
         <f t="shared" si="24"/>
         <v>0.90361445783132521</v>
       </c>
@@ -21947,7 +21936,7 @@
     </row>
     <row r="275" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B275" t="s">
         <v>69</v>
@@ -21965,7 +21954,7 @@
         <v>49</v>
       </c>
       <c r="G275" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H275">
         <v>8.1</v>
@@ -22024,7 +22013,7 @@
     </row>
     <row r="276" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B276" t="s">
         <v>69</v>
@@ -22042,7 +22031,7 @@
         <v>49</v>
       </c>
       <c r="G276" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H276">
         <v>8.4</v>
@@ -22486,7 +22475,7 @@
     </row>
     <row r="282" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B282" t="s">
         <v>62</v>
@@ -22563,7 +22552,7 @@
     </row>
     <row r="283" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B283" t="s">
         <v>62</v>
@@ -22640,7 +22629,7 @@
     </row>
     <row r="284" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B284" t="s">
         <v>62</v>
@@ -22717,7 +22706,7 @@
     </row>
     <row r="285" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B285" t="s">
         <v>62</v>
@@ -22794,7 +22783,7 @@
     </row>
     <row r="286" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B286" t="s">
         <v>62</v>
